--- a/GATEWAY/A1#111MILLEWIN000/MILLENNIUM_SPA/MILLEWIN/20.0.55.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111MILLEWIN000/MILLENNIUM_SPA/MILLEWIN/20.0.55.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antonietta.devito\OneDrive - Dedalus S.p.A\Desktop\accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9329F3A7-60F5-4033-A96C-55181CA5BFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42589B2F-32AE-4446-B3FC-987390883731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="1524" windowWidth="23028" windowHeight="11436" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="520">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1935,6 +1935,170 @@
   <si>
     <t>2025-01-22T17:19:01Z</t>
   </si>
+  <si>
+    <t>Il software non consente di omettere i campi obbligatori relativi al token jwt</t>
+  </si>
+  <si>
+    <t>I campi relativi al token jwt non sono modificabili</t>
+  </si>
+  <si>
+    <t>ATTENZIONE: invio Patient Summary fallito:server momentaneamente non raggiungibile (TIMEOUT)</t>
+  </si>
+  <si>
+    <t>Al medico compare una finestra con il messaggio di errore indicato ed il solo tasto OK. La procedura di invio viene interrotta.</t>
+  </si>
+  <si>
+    <t>Il software non permette di inviare un Patient Summary se non è specificato il livello di riservatezza</t>
+  </si>
+  <si>
+    <t>Il software non consente l'invio di un Patient Summary con codice fiscale errato. I codici fiscali vengono convertiti sempre in maiuscolo</t>
+  </si>
+  <si>
+    <t>Il software non consente di impostare un livello di riservatezza "Restricted"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il software non consente la compilazione di un Patient Summary se non è specificato il comune di residenza del paziente </t>
+  </si>
+  <si>
+    <t>Il software non consente di inviare un Patient Summary se non è valorizzato il nome del paziente</t>
+  </si>
+  <si>
+    <t>Il software non consente la registrazione di un paziente con valori relativi al sesso diversi da quelli ammessi.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Il software non consente di inserire nel campo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PersonalRelationshipRoleType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> valori non appartenenti al dizionario associato</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L'elemento </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>act/code,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> inerente alla lista dei problemi del paziente, è un dato obbligatorio</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Il software invia sempre la sezione obbligatoria "Stato funzionale del paziente" </t>
+  </si>
+  <si>
+    <t>Il software prevede sempre la compilazione della sezione narrativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laddove indicato l'invio della sezione Visite e ricoveri, il software imposta sempre  le informazioni e i riferimenti relativi a visite e ricoveri subiti dal paziente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">il software non consente di omettere la data di inizio terapia. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L'elemento </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>relatedSubject/code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> è sempre compilato</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Nel software l'inserimento della data di inizio allergia è obbligatorio </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nel software la compilazione dell'elemento </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>observation/participant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> è obbligatoria</t>
+    </r>
+  </si>
+  <si>
+    <t>Il software non consente valorizzazioni diverse da quelle previste dal sistema di codifica di riferimento nella compilazione dello stato funzionale del paziente</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Il software non consente la valorizzazione dell'elemento </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>signatureCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> del firmatario del documento diverso da "S" </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1943,7 +2107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2059,6 +2223,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2660,7 +2829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2881,6 +3050,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4327,11 +4499,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W779"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="Q215" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B188" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I216" sqref="I216"/>
+      <selection pane="bottomRight" activeCell="U49" sqref="U49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5393,7 +5565,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29">
         <v>28</v>
       </c>
@@ -5430,7 +5602,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="29">
         <v>29</v>
       </c>
@@ -5467,7 +5639,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="29">
         <v>30</v>
       </c>
@@ -5487,8 +5659,12 @@
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
+      <c r="J33" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="K33" s="34" t="s">
+        <v>499</v>
+      </c>
       <c r="L33" s="34"/>
       <c r="M33" s="34"/>
       <c r="N33" s="34"/>
@@ -5504,7 +5680,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="29">
         <v>31</v>
       </c>
@@ -5541,7 +5717,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29">
         <v>32</v>
       </c>
@@ -5578,7 +5754,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29">
         <v>33</v>
       </c>
@@ -5615,7 +5791,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="29">
         <v>34</v>
       </c>
@@ -5652,7 +5828,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="29">
         <v>35</v>
       </c>
@@ -5763,7 +5939,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="29">
         <v>38</v>
       </c>
@@ -5783,8 +5959,12 @@
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="33"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
+      <c r="J41" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="K41" s="34" t="s">
+        <v>500</v>
+      </c>
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
       <c r="N41" s="34"/>
@@ -6063,7 +6243,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="87" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="29">
         <v>46</v>
       </c>
@@ -6083,16 +6263,32 @@
       <c r="G49" s="33"/>
       <c r="H49" s="33"/>
       <c r="I49" s="33"/>
-      <c r="J49" s="34"/>
+      <c r="J49" s="34" t="s">
+        <v>87</v>
+      </c>
       <c r="K49" s="34"/>
       <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="34"/>
-      <c r="S49" s="34"/>
+      <c r="M49" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="N49" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O49" s="83" t="s">
+        <v>501</v>
+      </c>
+      <c r="P49" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q49" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="R49" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="S49" s="34" t="s">
+        <v>502</v>
+      </c>
       <c r="T49" s="34"/>
       <c r="U49" s="35" t="s">
         <v>87</v>
@@ -10663,7 +10859,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="29">
         <v>174</v>
       </c>
@@ -10683,8 +10879,12 @@
       <c r="G173" s="33"/>
       <c r="H173" s="33"/>
       <c r="I173" s="33"/>
-      <c r="J173" s="34"/>
-      <c r="K173" s="34"/>
+      <c r="J173" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="K173" s="83" t="s">
+        <v>503</v>
+      </c>
       <c r="L173" s="34"/>
       <c r="M173" s="34"/>
       <c r="N173" s="34"/>
@@ -10700,7 +10900,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="29">
         <v>175</v>
       </c>
@@ -10720,8 +10920,12 @@
       <c r="G174" s="33"/>
       <c r="H174" s="33"/>
       <c r="I174" s="33"/>
-      <c r="J174" s="34"/>
-      <c r="K174" s="34"/>
+      <c r="J174" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="K174" s="83" t="s">
+        <v>504</v>
+      </c>
       <c r="L174" s="34"/>
       <c r="M174" s="34"/>
       <c r="N174" s="34"/>
@@ -10737,7 +10941,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="29">
         <v>176</v>
       </c>
@@ -10757,8 +10961,12 @@
       <c r="G175" s="33"/>
       <c r="H175" s="33"/>
       <c r="I175" s="33"/>
-      <c r="J175" s="34"/>
-      <c r="K175" s="34"/>
+      <c r="J175" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="K175" s="34" t="s">
+        <v>505</v>
+      </c>
       <c r="L175" s="34"/>
       <c r="M175" s="34"/>
       <c r="N175" s="34"/>
@@ -10774,7 +10982,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="176" spans="1:23" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="29">
         <v>177</v>
       </c>
@@ -10794,8 +11002,12 @@
       <c r="G176" s="33"/>
       <c r="H176" s="33"/>
       <c r="I176" s="33"/>
-      <c r="J176" s="34"/>
-      <c r="K176" s="34"/>
+      <c r="J176" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="K176" s="83" t="s">
+        <v>506</v>
+      </c>
       <c r="L176" s="34"/>
       <c r="M176" s="34"/>
       <c r="N176" s="34"/>
@@ -10811,7 +11023,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="29">
         <v>178</v>
       </c>
@@ -10831,8 +11043,12 @@
       <c r="G177" s="33"/>
       <c r="H177" s="33"/>
       <c r="I177" s="33"/>
-      <c r="J177" s="34"/>
-      <c r="K177" s="34"/>
+      <c r="J177" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="K177" s="83" t="s">
+        <v>507</v>
+      </c>
       <c r="L177" s="34"/>
       <c r="M177" s="34"/>
       <c r="N177" s="34"/>
@@ -10848,7 +11064,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="178" spans="1:23" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="29">
         <v>179</v>
       </c>
@@ -10868,8 +11084,12 @@
       <c r="G178" s="33"/>
       <c r="H178" s="33"/>
       <c r="I178" s="33"/>
-      <c r="J178" s="34"/>
-      <c r="K178" s="34"/>
+      <c r="J178" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="K178" s="83" t="s">
+        <v>508</v>
+      </c>
       <c r="L178" s="34"/>
       <c r="M178" s="34"/>
       <c r="N178" s="34"/>
@@ -10885,7 +11105,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="179" spans="1:23" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="29">
         <v>180</v>
       </c>
@@ -10905,8 +11125,12 @@
       <c r="G179" s="33"/>
       <c r="H179" s="33"/>
       <c r="I179" s="33"/>
-      <c r="J179" s="34"/>
-      <c r="K179" s="34"/>
+      <c r="J179" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="K179" s="34" t="s">
+        <v>509</v>
+      </c>
       <c r="L179" s="34"/>
       <c r="M179" s="34"/>
       <c r="N179" s="34"/>
@@ -10922,7 +11146,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="29">
         <v>181</v>
       </c>
@@ -10942,8 +11166,12 @@
       <c r="G180" s="33"/>
       <c r="H180" s="33"/>
       <c r="I180" s="33"/>
-      <c r="J180" s="34"/>
-      <c r="K180" s="34"/>
+      <c r="J180" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="K180" s="34" t="s">
+        <v>510</v>
+      </c>
       <c r="L180" s="34"/>
       <c r="M180" s="34"/>
       <c r="N180" s="34"/>
@@ -10959,7 +11187,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="181" spans="1:23" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="29">
         <v>182</v>
       </c>
@@ -10979,8 +11207,12 @@
       <c r="G181" s="33"/>
       <c r="H181" s="33"/>
       <c r="I181" s="33"/>
-      <c r="J181" s="34"/>
-      <c r="K181" s="34"/>
+      <c r="J181" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="K181" s="83" t="s">
+        <v>511</v>
+      </c>
       <c r="L181" s="34"/>
       <c r="M181" s="34"/>
       <c r="N181" s="34"/>
@@ -10996,7 +11228,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="182" spans="1:23" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="29">
         <v>183</v>
       </c>
@@ -11016,8 +11248,12 @@
       <c r="G182" s="33"/>
       <c r="H182" s="33"/>
       <c r="I182" s="33"/>
-      <c r="J182" s="34"/>
-      <c r="K182" s="34"/>
+      <c r="J182" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="K182" s="83" t="s">
+        <v>512</v>
+      </c>
       <c r="L182" s="34"/>
       <c r="M182" s="34"/>
       <c r="N182" s="34"/>
@@ -11033,7 +11269,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="29">
         <v>184</v>
       </c>
@@ -11053,8 +11289,12 @@
       <c r="G183" s="33"/>
       <c r="H183" s="33"/>
       <c r="I183" s="33"/>
-      <c r="J183" s="34"/>
-      <c r="K183" s="34"/>
+      <c r="J183" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="K183" s="83" t="s">
+        <v>513</v>
+      </c>
       <c r="L183" s="34"/>
       <c r="M183" s="34"/>
       <c r="N183" s="34"/>
@@ -11070,7 +11310,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="29">
         <v>185</v>
       </c>
@@ -11090,8 +11330,12 @@
       <c r="G184" s="33"/>
       <c r="H184" s="33"/>
       <c r="I184" s="33"/>
-      <c r="J184" s="34"/>
-      <c r="K184" s="34"/>
+      <c r="J184" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="K184" s="83" t="s">
+        <v>514</v>
+      </c>
       <c r="L184" s="34"/>
       <c r="M184" s="34"/>
       <c r="N184" s="34"/>
@@ -11107,7 +11351,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="29">
         <v>186</v>
       </c>
@@ -11127,8 +11371,12 @@
       <c r="G185" s="33"/>
       <c r="H185" s="33"/>
       <c r="I185" s="33"/>
-      <c r="J185" s="34"/>
-      <c r="K185" s="34"/>
+      <c r="J185" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="K185" s="34" t="s">
+        <v>515</v>
+      </c>
       <c r="L185" s="34"/>
       <c r="M185" s="34"/>
       <c r="N185" s="34"/>
@@ -11144,7 +11392,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="29">
         <v>187</v>
       </c>
@@ -11164,8 +11412,12 @@
       <c r="G186" s="33"/>
       <c r="H186" s="33"/>
       <c r="I186" s="33"/>
-      <c r="J186" s="34"/>
-      <c r="K186" s="34"/>
+      <c r="J186" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="K186" s="83" t="s">
+        <v>516</v>
+      </c>
       <c r="L186" s="34"/>
       <c r="M186" s="34"/>
       <c r="N186" s="34"/>
@@ -11181,7 +11433,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="29">
         <v>188</v>
       </c>
@@ -11201,8 +11453,12 @@
       <c r="G187" s="33"/>
       <c r="H187" s="33"/>
       <c r="I187" s="33"/>
-      <c r="J187" s="34"/>
-      <c r="K187" s="34"/>
+      <c r="J187" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="K187" s="34" t="s">
+        <v>517</v>
+      </c>
       <c r="L187" s="34"/>
       <c r="M187" s="34"/>
       <c r="N187" s="34"/>
@@ -11218,7 +11474,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="29">
         <v>189</v>
       </c>
@@ -11238,8 +11494,12 @@
       <c r="G188" s="33"/>
       <c r="H188" s="33"/>
       <c r="I188" s="33"/>
-      <c r="J188" s="34"/>
-      <c r="K188" s="34"/>
+      <c r="J188" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="K188" s="34" t="s">
+        <v>518</v>
+      </c>
       <c r="L188" s="34"/>
       <c r="M188" s="34"/>
       <c r="N188" s="34"/>
@@ -11255,7 +11515,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="29">
         <v>190</v>
       </c>
@@ -11275,8 +11535,12 @@
       <c r="G189" s="33"/>
       <c r="H189" s="33"/>
       <c r="I189" s="33"/>
-      <c r="J189" s="34"/>
-      <c r="K189" s="34"/>
+      <c r="J189" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="K189" s="34" t="s">
+        <v>519</v>
+      </c>
       <c r="L189" s="34"/>
       <c r="M189" s="34"/>
       <c r="N189" s="34"/>
@@ -11699,7 +11963,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="201" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:23" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="50">
         <v>423</v>
       </c>
@@ -16538,11 +16802,6 @@
     <filterColumn colId="2">
       <filters>
         <filter val="PSS"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="22">
-      <filters>
-        <filter val="OK"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -16566,7 +16825,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J34 M34:N34 P34:R34 J36:J40 M36:N40 P36:R40 J42 M42:N42 P42:R42 J44:J48 M44:N48 P44:R48 J10:J32 M10:N32 P10:R32 P50:R219 J50:J219 M50:N219</xm:sqref>
+          <xm:sqref>J34 M34:N34 P34:R34 J36:J40 M36:N40 P36:R40 J42 M42:N42 P42:R42 J44:J48 M44:N48 P44:R48 J10:J32 M10:N32 P10:R32 P50:R219 M50:N219 J50:J172 J190:J219</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
@@ -16578,7 +16837,7 @@
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K219</xm:sqref>
+          <xm:sqref>K10:K32 K34:K40 K42:K172 K190:K219</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18825,15 +19084,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -18843,6 +19093,15 @@
     <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19104,14 +19363,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -19124,6 +19375,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111MILLEWIN000/MILLENNIUM_SPA/MILLEWIN/20.0.55.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111MILLEWIN000/MILLENNIUM_SPA/MILLEWIN/20.0.55.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antonietta.devito\OneDrive - Dedalus S.p.A\Desktop\accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42589B2F-32AE-4446-B3FC-987390883731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098B5877-7AB7-4E09-9529-78E34612D4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="520">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -3029,6 +3029,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3050,9 +3053,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3351,7 +3351,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4500,10 +4500,10 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B188" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="U49" sqref="U49"/>
+      <selection pane="bottomRight" activeCell="K215" sqref="K215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4545,12 +4545,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="75"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4571,14 +4571,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="83" t="s">
         <v>490</v>
       </c>
-      <c r="D3" s="74"/>
+      <c r="D3" s="75"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4599,12 +4599,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="82" t="s">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="83" t="s">
         <v>491</v>
       </c>
-      <c r="D4" s="74"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4626,12 +4626,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="82" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83" t="s">
         <v>492</v>
       </c>
-      <c r="D5" s="74"/>
+      <c r="D5" s="75"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4652,8 +4652,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -5663,9 +5663,11 @@
         <v>307</v>
       </c>
       <c r="K33" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L33" s="34" t="s">
         <v>499</v>
       </c>
-      <c r="L33" s="34"/>
       <c r="M33" s="34"/>
       <c r="N33" s="34"/>
       <c r="O33" s="34"/>
@@ -5717,7 +5719,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29">
         <v>32</v>
       </c>
@@ -5754,7 +5756,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29">
         <v>33</v>
       </c>
@@ -5791,7 +5793,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="29">
         <v>34</v>
       </c>
@@ -5828,7 +5830,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="29">
         <v>35</v>
       </c>
@@ -5963,9 +5965,11 @@
         <v>307</v>
       </c>
       <c r="K41" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L41" s="34" t="s">
         <v>500</v>
       </c>
-      <c r="L41" s="34"/>
       <c r="M41" s="34"/>
       <c r="N41" s="34"/>
       <c r="O41" s="34"/>
@@ -6274,7 +6278,7 @@
       <c r="N49" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="O49" s="83" t="s">
+      <c r="O49" s="71" t="s">
         <v>501</v>
       </c>
       <c r="P49" s="34" t="s">
@@ -10879,13 +10883,15 @@
       <c r="G173" s="33"/>
       <c r="H173" s="33"/>
       <c r="I173" s="33"/>
-      <c r="J173" s="83" t="s">
+      <c r="J173" s="71" t="s">
         <v>307</v>
       </c>
-      <c r="K173" s="83" t="s">
+      <c r="K173" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L173" s="71" t="s">
         <v>503</v>
       </c>
-      <c r="L173" s="34"/>
       <c r="M173" s="34"/>
       <c r="N173" s="34"/>
       <c r="O173" s="34"/>
@@ -10920,13 +10926,15 @@
       <c r="G174" s="33"/>
       <c r="H174" s="33"/>
       <c r="I174" s="33"/>
-      <c r="J174" s="83" t="s">
+      <c r="J174" s="71" t="s">
         <v>307</v>
       </c>
-      <c r="K174" s="83" t="s">
+      <c r="K174" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L174" s="71" t="s">
         <v>504</v>
       </c>
-      <c r="L174" s="34"/>
       <c r="M174" s="34"/>
       <c r="N174" s="34"/>
       <c r="O174" s="34"/>
@@ -10961,13 +10969,15 @@
       <c r="G175" s="33"/>
       <c r="H175" s="33"/>
       <c r="I175" s="33"/>
-      <c r="J175" s="83" t="s">
+      <c r="J175" s="71" t="s">
         <v>307</v>
       </c>
       <c r="K175" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L175" s="34" t="s">
         <v>505</v>
       </c>
-      <c r="L175" s="34"/>
       <c r="M175" s="34"/>
       <c r="N175" s="34"/>
       <c r="O175" s="34"/>
@@ -11002,13 +11012,15 @@
       <c r="G176" s="33"/>
       <c r="H176" s="33"/>
       <c r="I176" s="33"/>
-      <c r="J176" s="83" t="s">
+      <c r="J176" s="71" t="s">
         <v>307</v>
       </c>
-      <c r="K176" s="83" t="s">
+      <c r="K176" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L176" s="71" t="s">
         <v>506</v>
       </c>
-      <c r="L176" s="34"/>
       <c r="M176" s="34"/>
       <c r="N176" s="34"/>
       <c r="O176" s="34"/>
@@ -11043,13 +11055,15 @@
       <c r="G177" s="33"/>
       <c r="H177" s="33"/>
       <c r="I177" s="33"/>
-      <c r="J177" s="83" t="s">
+      <c r="J177" s="71" t="s">
         <v>307</v>
       </c>
-      <c r="K177" s="83" t="s">
+      <c r="K177" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L177" s="71" t="s">
         <v>507</v>
       </c>
-      <c r="L177" s="34"/>
       <c r="M177" s="34"/>
       <c r="N177" s="34"/>
       <c r="O177" s="34"/>
@@ -11084,13 +11098,15 @@
       <c r="G178" s="33"/>
       <c r="H178" s="33"/>
       <c r="I178" s="33"/>
-      <c r="J178" s="83" t="s">
+      <c r="J178" s="71" t="s">
         <v>307</v>
       </c>
-      <c r="K178" s="83" t="s">
+      <c r="K178" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L178" s="71" t="s">
         <v>508</v>
       </c>
-      <c r="L178" s="34"/>
       <c r="M178" s="34"/>
       <c r="N178" s="34"/>
       <c r="O178" s="34"/>
@@ -11125,13 +11141,15 @@
       <c r="G179" s="33"/>
       <c r="H179" s="33"/>
       <c r="I179" s="33"/>
-      <c r="J179" s="83" t="s">
+      <c r="J179" s="71" t="s">
         <v>307</v>
       </c>
       <c r="K179" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L179" s="34" t="s">
         <v>509</v>
       </c>
-      <c r="L179" s="34"/>
       <c r="M179" s="34"/>
       <c r="N179" s="34"/>
       <c r="O179" s="34"/>
@@ -11166,13 +11184,15 @@
       <c r="G180" s="33"/>
       <c r="H180" s="33"/>
       <c r="I180" s="33"/>
-      <c r="J180" s="83" t="s">
+      <c r="J180" s="71" t="s">
         <v>307</v>
       </c>
       <c r="K180" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L180" s="34" t="s">
         <v>510</v>
       </c>
-      <c r="L180" s="34"/>
       <c r="M180" s="34"/>
       <c r="N180" s="34"/>
       <c r="O180" s="34"/>
@@ -11207,13 +11227,15 @@
       <c r="G181" s="33"/>
       <c r="H181" s="33"/>
       <c r="I181" s="33"/>
-      <c r="J181" s="83" t="s">
+      <c r="J181" s="71" t="s">
         <v>307</v>
       </c>
-      <c r="K181" s="83" t="s">
+      <c r="K181" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L181" s="71" t="s">
         <v>511</v>
       </c>
-      <c r="L181" s="34"/>
       <c r="M181" s="34"/>
       <c r="N181" s="34"/>
       <c r="O181" s="34"/>
@@ -11248,13 +11270,15 @@
       <c r="G182" s="33"/>
       <c r="H182" s="33"/>
       <c r="I182" s="33"/>
-      <c r="J182" s="83" t="s">
+      <c r="J182" s="71" t="s">
         <v>307</v>
       </c>
-      <c r="K182" s="83" t="s">
+      <c r="K182" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L182" s="71" t="s">
         <v>512</v>
       </c>
-      <c r="L182" s="34"/>
       <c r="M182" s="34"/>
       <c r="N182" s="34"/>
       <c r="O182" s="34"/>
@@ -11289,13 +11313,15 @@
       <c r="G183" s="33"/>
       <c r="H183" s="33"/>
       <c r="I183" s="33"/>
-      <c r="J183" s="83" t="s">
+      <c r="J183" s="71" t="s">
         <v>307</v>
       </c>
-      <c r="K183" s="83" t="s">
+      <c r="K183" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L183" s="71" t="s">
         <v>513</v>
       </c>
-      <c r="L183" s="34"/>
       <c r="M183" s="34"/>
       <c r="N183" s="34"/>
       <c r="O183" s="34"/>
@@ -11330,13 +11356,15 @@
       <c r="G184" s="33"/>
       <c r="H184" s="33"/>
       <c r="I184" s="33"/>
-      <c r="J184" s="83" t="s">
+      <c r="J184" s="71" t="s">
         <v>307</v>
       </c>
-      <c r="K184" s="83" t="s">
+      <c r="K184" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L184" s="71" t="s">
         <v>514</v>
       </c>
-      <c r="L184" s="34"/>
       <c r="M184" s="34"/>
       <c r="N184" s="34"/>
       <c r="O184" s="34"/>
@@ -11371,13 +11399,15 @@
       <c r="G185" s="33"/>
       <c r="H185" s="33"/>
       <c r="I185" s="33"/>
-      <c r="J185" s="83" t="s">
+      <c r="J185" s="71" t="s">
         <v>307</v>
       </c>
       <c r="K185" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L185" s="34" t="s">
         <v>515</v>
       </c>
-      <c r="L185" s="34"/>
       <c r="M185" s="34"/>
       <c r="N185" s="34"/>
       <c r="O185" s="34"/>
@@ -11412,13 +11442,15 @@
       <c r="G186" s="33"/>
       <c r="H186" s="33"/>
       <c r="I186" s="33"/>
-      <c r="J186" s="83" t="s">
+      <c r="J186" s="71" t="s">
         <v>307</v>
       </c>
-      <c r="K186" s="83" t="s">
+      <c r="K186" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L186" s="71" t="s">
         <v>516</v>
       </c>
-      <c r="L186" s="34"/>
       <c r="M186" s="34"/>
       <c r="N186" s="34"/>
       <c r="O186" s="34"/>
@@ -11453,13 +11485,15 @@
       <c r="G187" s="33"/>
       <c r="H187" s="33"/>
       <c r="I187" s="33"/>
-      <c r="J187" s="83" t="s">
+      <c r="J187" s="71" t="s">
         <v>307</v>
       </c>
       <c r="K187" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L187" s="34" t="s">
         <v>517</v>
       </c>
-      <c r="L187" s="34"/>
       <c r="M187" s="34"/>
       <c r="N187" s="34"/>
       <c r="O187" s="34"/>
@@ -11494,13 +11528,15 @@
       <c r="G188" s="33"/>
       <c r="H188" s="33"/>
       <c r="I188" s="33"/>
-      <c r="J188" s="83" t="s">
+      <c r="J188" s="71" t="s">
         <v>307</v>
       </c>
       <c r="K188" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L188" s="34" t="s">
         <v>518</v>
       </c>
-      <c r="L188" s="34"/>
       <c r="M188" s="34"/>
       <c r="N188" s="34"/>
       <c r="O188" s="34"/>
@@ -11535,13 +11571,15 @@
       <c r="G189" s="33"/>
       <c r="H189" s="33"/>
       <c r="I189" s="33"/>
-      <c r="J189" s="83" t="s">
+      <c r="J189" s="71" t="s">
         <v>307</v>
       </c>
       <c r="K189" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L189" s="34" t="s">
         <v>519</v>
       </c>
-      <c r="L189" s="34"/>
       <c r="M189" s="34"/>
       <c r="N189" s="34"/>
       <c r="O189" s="34"/>
@@ -11963,7 +12001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="201" spans="1:23" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="50">
         <v>423</v>
       </c>
@@ -16837,7 +16875,7 @@
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K32 K34:K40 K42:K172 K190:K219</xm:sqref>
+          <xm:sqref>K10:K219</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -19084,27 +19122,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -19362,32 +19379,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEA2CD4-B321-4AF0-BAC8-6887893E697D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19404,4 +19417,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111MILLEWIN000/MILLENNIUM_SPA/MILLEWIN/20.0.55.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111MILLEWIN000/MILLENNIUM_SPA/MILLEWIN/20.0.55.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antonietta.devito\OneDrive - Dedalus S.p.A\Desktop\accreditamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antonietta.devito\OneDrive - Dedalus S.p.A\Desktop\FSE 2.0\nuova\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098B5877-7AB7-4E09-9529-78E34612D4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E5F188-9EE2-4757-9CA3-8C5C31270369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="518">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1918,24 +1918,6 @@
     <t>subject_application_version: 20.0.55.0</t>
   </si>
   <si>
-    <t>2025-01-22T17:28:52Z</t>
-  </si>
-  <si>
-    <t>dd42d4caf04a8449</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.40a035c809cbaf00f173c56382580d2917ecb58e9db93d7245e5f07145318cbe.e08c34cb97^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.bb78574a02493a3484a712d189af89ef456bb7cd80d28bda9fce7a2f6517487b.44bb1a7922^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d4d6476fc9466e25</t>
-  </si>
-  <si>
-    <t>2025-01-22T17:19:01Z</t>
-  </si>
-  <si>
     <t>Il software non consente di omettere i campi obbligatori relativi al token jwt</t>
   </si>
   <si>
@@ -2097,6 +2079,39 @@
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve"> del firmatario del documento diverso da "S" </t>
+    </r>
+  </si>
+  <si>
+    <t>2025-03-03T17:14:15Z</t>
+  </si>
+  <si>
+    <t>44a20a4e5ceb9846</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.eebb47cad0f6c2c3c5dbd5895b4fd5fae4ac2aa0fc59f6a5669688df7a4e2e74.eb8ed5b5e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <r>
+      <t>Per l'accreditamento si sottopone alla verifica il solo caso di test 1 - ID 444, come da email del 13/01/2025 di Segreteria Tecnica FSE - Andrea Di Pietra con oggetto Oggetto: FSE 2.0 - Richiesta di sollecito accreditamento applicativo MILLEWIN (cha ha superato il Test 0) , dove si specifica che "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>vi informiamo che il superamento della fase 1 del processo di accreditamento è ritenuto valido se l’applicativo supera almeno il caso di test 1, tra quelli attualmente previsti per il Profilo Sanitario Sintetico sul sito di GitHub Test Case Profilo Sanitario Sintetico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>."</t>
     </r>
   </si>
 </sst>
@@ -4500,10 +4515,10 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E189" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K215" sqref="K215"/>
+      <selection pane="bottomRight" activeCell="I215" sqref="I215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5666,7 +5681,7 @@
         <v>318</v>
       </c>
       <c r="L33" s="34" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="M33" s="34"/>
       <c r="N33" s="34"/>
@@ -5719,7 +5734,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29">
         <v>32</v>
       </c>
@@ -5756,7 +5771,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29">
         <v>33</v>
       </c>
@@ -5793,7 +5808,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="29">
         <v>34</v>
       </c>
@@ -5830,7 +5845,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="29">
         <v>35</v>
       </c>
@@ -5968,7 +5983,7 @@
         <v>318</v>
       </c>
       <c r="L41" s="34" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M41" s="34"/>
       <c r="N41" s="34"/>
@@ -6279,7 +6294,7 @@
         <v>87</v>
       </c>
       <c r="O49" s="71" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="P49" s="34" t="s">
         <v>307</v>
@@ -6291,7 +6306,7 @@
         <v>87</v>
       </c>
       <c r="S49" s="34" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="T49" s="34"/>
       <c r="U49" s="35" t="s">
@@ -10890,7 +10905,7 @@
         <v>318</v>
       </c>
       <c r="L173" s="71" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="M173" s="34"/>
       <c r="N173" s="34"/>
@@ -10933,7 +10948,7 @@
         <v>318</v>
       </c>
       <c r="L174" s="71" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="M174" s="34"/>
       <c r="N174" s="34"/>
@@ -10976,7 +10991,7 @@
         <v>318</v>
       </c>
       <c r="L175" s="34" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="M175" s="34"/>
       <c r="N175" s="34"/>
@@ -11019,7 +11034,7 @@
         <v>318</v>
       </c>
       <c r="L176" s="71" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M176" s="34"/>
       <c r="N176" s="34"/>
@@ -11062,7 +11077,7 @@
         <v>318</v>
       </c>
       <c r="L177" s="71" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="M177" s="34"/>
       <c r="N177" s="34"/>
@@ -11105,7 +11120,7 @@
         <v>318</v>
       </c>
       <c r="L178" s="71" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="M178" s="34"/>
       <c r="N178" s="34"/>
@@ -11148,7 +11163,7 @@
         <v>318</v>
       </c>
       <c r="L179" s="34" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="M179" s="34"/>
       <c r="N179" s="34"/>
@@ -11191,7 +11206,7 @@
         <v>318</v>
       </c>
       <c r="L180" s="34" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="M180" s="34"/>
       <c r="N180" s="34"/>
@@ -11234,7 +11249,7 @@
         <v>318</v>
       </c>
       <c r="L181" s="71" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="M181" s="34"/>
       <c r="N181" s="34"/>
@@ -11277,7 +11292,7 @@
         <v>318</v>
       </c>
       <c r="L182" s="71" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M182" s="34"/>
       <c r="N182" s="34"/>
@@ -11320,7 +11335,7 @@
         <v>318</v>
       </c>
       <c r="L183" s="71" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="M183" s="34"/>
       <c r="N183" s="34"/>
@@ -11363,7 +11378,7 @@
         <v>318</v>
       </c>
       <c r="L184" s="71" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="M184" s="34"/>
       <c r="N184" s="34"/>
@@ -11406,7 +11421,7 @@
         <v>318</v>
       </c>
       <c r="L185" s="34" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M185" s="34"/>
       <c r="N185" s="34"/>
@@ -11449,7 +11464,7 @@
         <v>318</v>
       </c>
       <c r="L186" s="71" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="M186" s="34"/>
       <c r="N186" s="34"/>
@@ -11492,7 +11507,7 @@
         <v>318</v>
       </c>
       <c r="L187" s="34" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="M187" s="34"/>
       <c r="N187" s="34"/>
@@ -11535,7 +11550,7 @@
         <v>318</v>
       </c>
       <c r="L188" s="34" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="M188" s="34"/>
       <c r="N188" s="34"/>
@@ -11578,7 +11593,7 @@
         <v>318</v>
       </c>
       <c r="L189" s="34" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M189" s="34"/>
       <c r="N189" s="34"/>
@@ -12536,16 +12551,16 @@
         <v>322</v>
       </c>
       <c r="F215" s="54">
-        <v>45679</v>
+        <v>45719</v>
       </c>
       <c r="G215" s="55" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="H215" s="55" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="I215" s="55" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="J215" s="56" t="s">
         <v>87</v>
@@ -12566,7 +12581,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="216" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:23" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="50">
         <v>445</v>
       </c>
@@ -12582,23 +12597,19 @@
       <c r="E216" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F216" s="54">
-        <v>45679</v>
-      </c>
-      <c r="G216" s="55" t="s">
-        <v>498</v>
-      </c>
-      <c r="H216" s="55" t="s">
-        <v>497</v>
-      </c>
-      <c r="I216" s="55" t="s">
-        <v>496</v>
-      </c>
+      <c r="F216" s="54"/>
+      <c r="G216" s="55"/>
+      <c r="H216" s="55"/>
+      <c r="I216" s="55"/>
       <c r="J216" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="K216" s="56"/>
-      <c r="L216" s="56"/>
+        <v>307</v>
+      </c>
+      <c r="K216" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="L216" s="56" t="s">
+        <v>517</v>
+      </c>
       <c r="M216" s="56"/>
       <c r="N216" s="56"/>
       <c r="O216" s="56"/>
@@ -12610,7 +12621,7 @@
       <c r="U216" s="57"/>
       <c r="V216" s="58"/>
       <c r="W216" s="59" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="217" spans="1:23" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
@@ -19122,6 +19133,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -19379,15 +19399,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -19401,6 +19412,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEA2CD4-B321-4AF0-BAC8-6887893E697D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19415,14 +19434,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
